--- a/analysis/thalamus/figures_tables/choroid_associations/deep_grey_and_inflammatory_markers.xlsx
+++ b/analysis/thalamus/figures_tables/choroid_associations/deep_grey_and_inflammatory_markers.xlsx
@@ -499,19 +499,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.2400120234272266</v>
+        <v>-0.2400120234272264</v>
       </c>
       <c r="D2" t="n">
-        <v>1.037029132327201e-06</v>
+        <v>1.037029132327213e-06</v>
       </c>
       <c r="E2" t="n">
         <v>0.04485974693678416</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3352787654988199</v>
+        <v>-0.3352787654988197</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1447452813556333</v>
+        <v>-0.1447452813556332</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.866652438188962e-06</v>
+        <v>1.866652438188983e-06</v>
       </c>
       <c r="J2" t="n">
         <v>0.1172835452289672</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.2400120234272266</v>
+        <v>-0.2400120234272264</v>
       </c>
     </row>
     <row r="3">
@@ -538,19 +538,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.001930910197239902</v>
+        <v>-0.001930910197239697</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9632999490799247</v>
+        <v>0.9632999490799286</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03893948134448024</v>
+        <v>0.03893948134448023</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0843508127396269</v>
+        <v>-0.08435081273962666</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0804889923451471</v>
+        <v>0.08048899234514728</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.9632999490799247</v>
+        <v>0.9632999490799286</v>
       </c>
       <c r="J3" t="n">
         <v>0.2700883669948059</v>
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.2663567838387054</v>
+        <v>-0.2663567838387051</v>
       </c>
       <c r="D4" t="n">
-        <v>3.74179138175975e-11</v>
+        <v>3.741791381759914e-11</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03933924223375711</v>
+        <v>0.03933924223375708</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3435900762200854</v>
+        <v>-0.343590076220085</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1891234914573255</v>
+        <v>-0.1891234914573252</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1.683806121791888e-10</v>
+        <v>1.683806121791961e-10</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4447955433948588</v>
+        <v>0.4447955433948589</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.2663567838387054</v>
+        <v>-0.2663567838387051</v>
       </c>
     </row>
     <row r="5">
@@ -616,19 +616,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.1052793546878383</v>
+        <v>-0.105279354687838</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0117652485581466</v>
+        <v>0.01176524855814678</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04304858326842572</v>
+        <v>0.0430485832684257</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1870797830274985</v>
+        <v>-0.1870797830274982</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.02347892634817804</v>
+        <v>-0.02347892634817779</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.0176478728372199</v>
+        <v>0.01764787283722017</v>
       </c>
       <c r="J5" t="n">
         <v>0.3810755625002213</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1052793546878383</v>
+        <v>-0.105279354687838</v>
       </c>
     </row>
     <row r="6">
@@ -655,19 +655,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.3110601439633743</v>
+        <v>-0.311060143963374</v>
       </c>
       <c r="D6" t="n">
-        <v>6.105166646798146e-14</v>
+        <v>6.105166646798432e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04214458467153952</v>
+        <v>0.0421445846715395</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3899898202647384</v>
+        <v>-0.3899898202647381</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2321304676620102</v>
+        <v>-0.2321304676620099</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5.494649982118331e-13</v>
+        <v>5.494649982118589e-13</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4119137907088324</v>
+        <v>0.4119137907088323</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.3110601439633743</v>
+        <v>-0.311060143963374</v>
       </c>
     </row>
     <row r="7">
@@ -694,19 +694,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.09428783064441121</v>
+        <v>-0.09428783064441099</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02393409802540726</v>
+        <v>0.02393409802540755</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04363239275401452</v>
+        <v>0.04363239275401451</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.176068073359119</v>
+        <v>-0.1760680733591187</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.01250758792970344</v>
+        <v>-0.01250758792970323</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -714,13 +714,13 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.03077241174695219</v>
+        <v>0.03077241174695257</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3450690107327298</v>
+        <v>0.3450690107327297</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.09428783064441121</v>
+        <v>-0.09428783064441099</v>
       </c>
     </row>
     <row r="8">
@@ -733,19 +733,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.05032058215868571</v>
+        <v>-0.05032058215868548</v>
       </c>
       <c r="D8" t="n">
-        <v>0.246647716382071</v>
+        <v>0.2466477163820732</v>
       </c>
       <c r="E8" t="n">
         <v>0.04179980798547944</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1355664870633331</v>
+        <v>-0.1355664870633329</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03492532274596169</v>
+        <v>0.03492532274596191</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -753,10 +753,10 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.2774786809298299</v>
+        <v>0.2774786809298323</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2848462196530241</v>
+        <v>0.284846219653024</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -772,19 +772,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.2254349193894066</v>
+        <v>-0.2254349193894064</v>
       </c>
       <c r="D9" t="n">
-        <v>6.239408859360187e-09</v>
+        <v>6.239408859360368e-09</v>
       </c>
       <c r="E9" t="n">
         <v>0.03756105136028415</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3002532397698665</v>
+        <v>-0.3002532397698662</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1506165990089467</v>
+        <v>-0.1506165990089465</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -792,13 +792,13 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1.871822657808056e-08</v>
+        <v>1.871822657808111e-08</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4358827363863681</v>
+        <v>0.435882736386368</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.2254349193894066</v>
+        <v>-0.2254349193894064</v>
       </c>
     </row>
     <row r="10">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.215976574536328</v>
+        <v>-0.2159765745363277</v>
       </c>
       <c r="D10" t="n">
-        <v>1.26562138649553e-08</v>
+        <v>1.265621386495576e-08</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03902015994603981</v>
+        <v>0.03902015994603979</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2892169602021377</v>
+        <v>-0.2892169602021374</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1427361888705183</v>
+        <v>-0.1427361888705181</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -831,13 +831,13 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2.847648119614942e-08</v>
+        <v>2.847648119615046e-08</v>
       </c>
       <c r="J10" t="n">
         <v>0.463388126236228</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.215976574536328</v>
+        <v>-0.2159765745363277</v>
       </c>
     </row>
   </sheetData>
@@ -924,16 +924,16 @@
         <v>-0.2802436377367992</v>
       </c>
       <c r="D2" t="n">
-        <v>7.496088762483997e-09</v>
+        <v>7.496088762484135e-09</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0501247272869747</v>
+        <v>0.05012472728697473</v>
       </c>
       <c r="F2" t="n">
         <v>-0.3737626970053862</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1867245784682122</v>
+        <v>-0.1867245784682121</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.34929597724712e-08</v>
+        <v>1.349295977247144e-08</v>
       </c>
       <c r="J2" t="n">
         <v>0.1355101207789006</v>
@@ -960,19 +960,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.02070171252540558</v>
+        <v>-0.0207017125254054</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6188964173461324</v>
+        <v>0.6188964173461353</v>
       </c>
       <c r="E3" t="n">
-        <v>0.046420633251079</v>
+        <v>0.04642063325107903</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1024317096415396</v>
+        <v>-0.1024317096415394</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0610282845907284</v>
+        <v>0.0610282845907286</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.6188964173461324</v>
+        <v>0.6188964173461353</v>
       </c>
       <c r="J3" t="n">
         <v>0.2694747136714788</v>
@@ -999,16 +999,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.4262977337340918</v>
+        <v>-0.4262977337340919</v>
       </c>
       <c r="D4" t="n">
-        <v>7.485941442246619e-29</v>
+        <v>7.485941442246834e-29</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03653569875576512</v>
+        <v>0.03653569875576514</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4964218792246677</v>
+        <v>-0.4964218792246678</v>
       </c>
       <c r="G4" t="n">
         <v>-0.3561735882435159</v>
@@ -1019,13 +1019,13 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>3.368673649010979e-28</v>
+        <v>3.368673649011076e-28</v>
       </c>
       <c r="J4" t="n">
         <v>0.5340388353398403</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.4262977337340918</v>
+        <v>-0.4262977337340919</v>
       </c>
     </row>
     <row r="5">
@@ -1038,19 +1038,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.04725026014728625</v>
+        <v>-0.0472502601472861</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2541747733363676</v>
+        <v>0.2541747733363692</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04749308162405132</v>
+        <v>0.04749308162405134</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1285789476612318</v>
+        <v>-0.1285789476612317</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03407842736665927</v>
+        <v>0.03407842736665945</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.3267961371467584</v>
+        <v>0.3267961371467604</v>
       </c>
       <c r="J5" t="n">
         <v>0.374965212350313</v>
@@ -1077,19 +1077,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.4709577918764891</v>
+        <v>-0.4709577918764892</v>
       </c>
       <c r="D6" t="n">
-        <v>1.860754018810746e-33</v>
+        <v>1.8607540188108e-33</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03738150058224318</v>
+        <v>0.0373815005822432</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5417450909852806</v>
+        <v>-0.5417450909852808</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4001704927676975</v>
+        <v>-0.4001704927676976</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1097,13 +1097,13 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1.674678616929672e-32</v>
+        <v>1.67467861692972e-32</v>
       </c>
       <c r="J6" t="n">
         <v>0.5168737512099949</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.4709577918764891</v>
+        <v>-0.4709577918764892</v>
       </c>
     </row>
     <row r="7">
@@ -1116,19 +1116,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.1191199011081149</v>
+        <v>-0.1191199011081148</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00376951553848787</v>
+        <v>0.003769515538487943</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04542232686727113</v>
+        <v>0.04542232686727116</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1995162732384377</v>
+        <v>-0.1995162732384376</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.03872352897779217</v>
+        <v>-0.03872352897779194</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1136,13 +1136,13 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.005654273307731804</v>
+        <v>0.005654273307731915</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3503820340840879</v>
+        <v>0.3503820340840877</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1191199011081149</v>
+        <v>-0.1191199011081148</v>
       </c>
     </row>
     <row r="8">
@@ -1155,19 +1155,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.02887581740721149</v>
+        <v>-0.02887581740721133</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5010604138149837</v>
+        <v>0.5010604138149861</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05489276953929532</v>
+        <v>0.05489276953929535</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1131471360751751</v>
+        <v>-0.1131471360751749</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05539550126075208</v>
+        <v>0.05539550126075227</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.5636929655418567</v>
+        <v>0.5636929655418594</v>
       </c>
       <c r="J8" t="n">
         <v>0.2828413717606608</v>
@@ -1197,10 +1197,10 @@
         <v>-0.3280266619120623</v>
       </c>
       <c r="D9" t="n">
-        <v>1.655215180103331e-18</v>
+        <v>1.655215180103391e-18</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0338907021706897</v>
+        <v>0.03389070217068971</v>
       </c>
       <c r="F9" t="n">
         <v>-0.3983755565946367</v>
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>4.965645540309993e-18</v>
+        <v>4.965645540310172e-18</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4884574031393449</v>
+        <v>0.4884574031393448</v>
       </c>
       <c r="K9" t="n">
         <v>-0.3280266619120623</v>
@@ -1233,19 +1233,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.2402470929186629</v>
+        <v>-0.2402470929186628</v>
       </c>
       <c r="D10" t="n">
-        <v>1.226617780859086e-10</v>
+        <v>1.226617780859126e-10</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04023606550565383</v>
+        <v>0.04023606550565384</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3119238252403201</v>
+        <v>-0.31192382524032</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1685703605970056</v>
+        <v>-0.1685703605970055</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1253,13 +1253,13 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2.759890006932943e-10</v>
+        <v>2.759890006933032e-10</v>
       </c>
       <c r="J10" t="n">
         <v>0.4748239205217456</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.2402470929186629</v>
+        <v>-0.2402470929186628</v>
       </c>
     </row>
   </sheetData>
@@ -1343,16 +1343,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3401704784293738</v>
+        <v>0.3401704784293737</v>
       </c>
       <c r="D2" t="n">
-        <v>6.205111904344327e-12</v>
+        <v>6.205111904344506e-12</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0430579382623219</v>
+        <v>0.04305793826232192</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2454605600372955</v>
+        <v>0.2454605600372954</v>
       </c>
       <c r="G2" t="n">
         <v>0.434880396821452</v>
@@ -1363,13 +1363,13 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.396150178477474e-11</v>
+        <v>1.396150178477514e-11</v>
       </c>
       <c r="J2" t="n">
         <v>0.1608427183015987</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3401704784293738</v>
+        <v>0.3401704784293737</v>
       </c>
     </row>
     <row r="3">
@@ -1382,19 +1382,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.03887487413148782</v>
+        <v>0.03887487413148759</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3633796812622749</v>
+        <v>0.3633796812622779</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04390377611092375</v>
+        <v>0.04390377611092378</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.04508818820410427</v>
+        <v>-0.04508818820410453</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1228379364670799</v>
+        <v>0.1228379364670797</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.4088021414200593</v>
+        <v>0.4088021414200627</v>
       </c>
       <c r="J3" t="n">
         <v>0.2713877323389963</v>
@@ -1421,19 +1421,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.3143395815710819</v>
+        <v>0.3143395815710817</v>
       </c>
       <c r="D4" t="n">
-        <v>1.165130207823561e-14</v>
+        <v>1.165130207823628e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04736508746844374</v>
+        <v>0.04736508746844376</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2369280468656354</v>
+        <v>0.2369280468656351</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3917511162765285</v>
+        <v>0.3917511162765283</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1441,13 +1441,13 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5.243085935206025e-14</v>
+        <v>5.243085935206328e-14</v>
       </c>
       <c r="J4" t="n">
         <v>0.463500837532878</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3143395815710819</v>
+        <v>0.3143395815710817</v>
       </c>
     </row>
     <row r="5">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1518698187432569</v>
+        <v>0.1518698187432567</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0003484263424473254</v>
+        <v>0.0003484263424473347</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05036636431034192</v>
+        <v>0.05036636431034196</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06904261713093032</v>
+        <v>0.06904261713093007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2346970203555835</v>
+        <v>0.2346970203555833</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.000522639513670988</v>
+        <v>0.0005226395136710021</v>
       </c>
       <c r="J5" t="n">
         <v>0.3896396695585322</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1518698187432569</v>
+        <v>0.1518698187432567</v>
       </c>
     </row>
     <row r="6">
@@ -1499,16 +1499,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4751219141801485</v>
+        <v>0.4751219141801484</v>
       </c>
       <c r="D6" t="n">
-        <v>8.850489128082087e-32</v>
+        <v>8.850489128082594e-32</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0401740103877766</v>
+        <v>0.04017401038777661</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4014122099745157</v>
+        <v>0.4014122099745155</v>
       </c>
       <c r="G6" t="n">
         <v>0.5488316183857813</v>
@@ -1519,13 +1519,13 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>7.965440215273879e-31</v>
+        <v>7.965440215274336e-31</v>
       </c>
       <c r="J6" t="n">
         <v>0.5066858918891464</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4751219141801485</v>
+        <v>0.4751219141801484</v>
       </c>
     </row>
     <row r="7">
@@ -1538,19 +1538,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.02375474328873564</v>
+        <v>0.02375474328873539</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5778493340892468</v>
+        <v>0.5778493340892508</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0528708378650824</v>
+        <v>0.05287083786508241</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.06006382868791994</v>
+        <v>-0.06006382868792022</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1075733152653912</v>
+        <v>0.107573315265391</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.5778493340892468</v>
+        <v>0.5778493340892508</v>
       </c>
       <c r="J7" t="n">
         <v>0.3382512765092648</v>
@@ -1577,19 +1577,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.05349226646234346</v>
+        <v>0.0534922664623432</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2270792157784161</v>
+        <v>0.2270792157784184</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05619367350792916</v>
+        <v>0.05619367350792917</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03341612859882675</v>
+        <v>-0.03341612859882703</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1404006615235137</v>
+        <v>0.1404006615235134</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.2919589917151064</v>
+        <v>0.2919589917151094</v>
       </c>
       <c r="J8" t="n">
         <v>0.2850269117061851</v>
@@ -1616,19 +1616,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2311505232820736</v>
+        <v>0.2311505232820734</v>
       </c>
       <c r="D9" t="n">
-        <v>5.094641573029862e-09</v>
+        <v>5.094641573030048e-09</v>
       </c>
       <c r="E9" t="n">
         <v>0.05782746033385991</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1548959544673062</v>
+        <v>0.1548959544673059</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3074050920968411</v>
+        <v>0.3074050920968409</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1636,13 +1636,13 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>9.170354831453751e-09</v>
+        <v>9.170354831454086e-09</v>
       </c>
       <c r="J9" t="n">
         <v>0.4363635530931521</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2311505232820736</v>
+        <v>0.2311505232820734</v>
       </c>
     </row>
     <row r="10">
@@ -1655,19 +1655,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2792998087334334</v>
+        <v>0.2792998087334332</v>
       </c>
       <c r="D10" t="n">
-        <v>2.918990679548505e-13</v>
+        <v>2.918990679548674e-13</v>
       </c>
       <c r="E10" t="n">
         <v>0.04420530399348432</v>
       </c>
       <c r="F10" t="n">
-        <v>0.206288318168893</v>
+        <v>0.2062883181688928</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3523112992979738</v>
+        <v>0.3523112992979736</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1675,13 +1675,13 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>8.756972038645515e-13</v>
+        <v>8.756972038646022e-13</v>
       </c>
       <c r="J10" t="n">
         <v>0.4870732957076438</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2792998087334334</v>
+        <v>0.2792998087334332</v>
       </c>
     </row>
   </sheetData>
@@ -1774,7 +1774,7 @@
         <v>0.04576943166949581</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2780380013756657</v>
+        <v>-0.2780380013756658</v>
       </c>
       <c r="G2" t="n">
         <v>-0.1049344589004002</v>
@@ -1788,7 +1788,7 @@
         <v>7.62245702386705e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1070089700654624</v>
+        <v>0.1070089700654623</v>
       </c>
       <c r="K2" t="n">
         <v>-0.191486230138033</v>
@@ -1804,10 +1804,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.06314216763328745</v>
+        <v>-0.06314216763328742</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09526073869725674</v>
+        <v>0.09526073869725687</v>
       </c>
       <c r="E3" t="n">
         <v>0.03254413799221584</v>
@@ -1816,7 +1816,7 @@
         <v>-0.1373668063540284</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01108247108745347</v>
+        <v>0.01108247108745351</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.1071683310344138</v>
+        <v>0.107168331034414</v>
       </c>
       <c r="J3" t="n">
         <v>0.274464181028379</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.1509865680945364</v>
+        <v>-0.1509865680945363</v>
       </c>
       <c r="D4" t="n">
-        <v>4.292947339661454e-05</v>
+        <v>4.29294733966156e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05129962579808682</v>
+        <v>0.0512996257980868</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2228166186045029</v>
+        <v>-0.2228166186045027</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.07915651758457005</v>
+        <v>-0.07915651758456985</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1863,13 +1863,13 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.0001205028078209322</v>
+        <v>0.0001205028078209344</v>
       </c>
       <c r="J4" t="n">
         <v>0.4114101470154088</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1509865680945364</v>
+        <v>-0.1509865680945363</v>
       </c>
     </row>
     <row r="5">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.08537359567065178</v>
+        <v>-0.0853735956706516</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02381901374762479</v>
+        <v>0.02381901374762511</v>
       </c>
       <c r="E5" t="n">
         <v>0.03968488274851346</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1593611383039509</v>
+        <v>-0.1593611383039507</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01138605303735264</v>
+        <v>-0.01138605303735246</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1902,13 +1902,13 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.03572852062143718</v>
+        <v>0.03572852062143766</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3794164453656504</v>
+        <v>0.3794164453656506</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.08537359567065178</v>
+        <v>-0.0853735956706516</v>
       </c>
     </row>
     <row r="6">
@@ -1921,19 +1921,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.3092200860667404</v>
+        <v>-0.3092200860667402</v>
       </c>
       <c r="D6" t="n">
-        <v>9.056787866176518e-17</v>
+        <v>9.05678786617691e-17</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07129023887593813</v>
+        <v>0.07129023887593812</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.379533707970348</v>
+        <v>-0.3795337079703478</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2389064641631328</v>
+        <v>-0.2389064641631327</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1941,13 +1941,13 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8.151109079558866e-16</v>
+        <v>8.151109079559218e-16</v>
       </c>
       <c r="J6" t="n">
         <v>0.4280002069661368</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.3092200860667404</v>
+        <v>-0.3092200860667402</v>
       </c>
     </row>
     <row r="7">
@@ -1960,19 +1960,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.01477586233603401</v>
+        <v>-0.01477586233603385</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6959981755619249</v>
+        <v>0.6959981755619282</v>
       </c>
       <c r="E7" t="n">
         <v>0.04844131799140333</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.08904230628604198</v>
+        <v>-0.08904230628604186</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05949058161397396</v>
+        <v>0.05949058161397415</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1980,10 +1980,10 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.6959981755619249</v>
+        <v>0.6959981755619282</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3380265216118696</v>
+        <v>0.3380265216118695</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.08159777413544675</v>
+        <v>-0.08159777413544667</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03723719435638904</v>
+        <v>0.03723719435638937</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04669513935716762</v>
+        <v>0.04669513935716763</v>
       </c>
       <c r="F8" t="n">
         <v>-0.1583494671780473</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.00484608109284615</v>
+        <v>-0.004846081092846038</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -2019,13 +2019,13 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.04787639274392878</v>
+        <v>0.04787639274392919</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2894659452000075</v>
+        <v>0.2894659452000076</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.08159777413544675</v>
+        <v>-0.08159777413544667</v>
       </c>
     </row>
     <row r="9">
@@ -2038,19 +2038,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.1429027555071009</v>
+        <v>-0.1429027555071007</v>
       </c>
       <c r="D9" t="n">
-        <v>5.355680347596986e-05</v>
+        <v>5.355680347597086e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05066731753852963</v>
+        <v>0.0506673175385296</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2117708579251237</v>
+        <v>-0.2117708579251236</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07403465308907808</v>
+        <v>-0.0740346530890779</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2058,13 +2058,13 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.0001205028078209322</v>
+        <v>0.0001205028078209344</v>
       </c>
       <c r="J9" t="n">
         <v>0.414204142251265</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.1429027555071009</v>
+        <v>-0.1429027555071007</v>
       </c>
     </row>
     <row r="10">
@@ -2077,19 +2077,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.1220047643272697</v>
+        <v>-0.1220047643272695</v>
       </c>
       <c r="D10" t="n">
-        <v>0.000430069315923381</v>
+        <v>0.0004300693159233892</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03634336777656315</v>
+        <v>0.03634336777656313</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1896062294824318</v>
+        <v>-0.1896062294824317</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05440329917210755</v>
+        <v>-0.05440329917210739</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -2097,13 +2097,13 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.0007741247686620859</v>
+        <v>0.0007741247686621005</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4396906989645611</v>
+        <v>0.4396906989645613</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.1220047643272697</v>
+        <v>-0.1220047643272695</v>
       </c>
     </row>
   </sheetData>
@@ -2187,19 +2187,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.09843635426188643</v>
+        <v>-0.09843635426188641</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02115810197491952</v>
+        <v>0.02115810197491953</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04191927276998549</v>
+        <v>0.04191927276998546</v>
       </c>
       <c r="F2" t="n">
         <v>-0.1820655753286521</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.01480713319512071</v>
+        <v>-0.0148071331951207</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -2207,13 +2207,13 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.03173715296237928</v>
+        <v>0.0317371529623793</v>
       </c>
       <c r="J2" t="n">
         <v>0.08117121379812386</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.09843635426188643</v>
+        <v>-0.09843635426188641</v>
       </c>
     </row>
     <row r="3">
@@ -2226,16 +2226,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.04830551023996128</v>
+        <v>0.04830551023996133</v>
       </c>
       <c r="D3" t="n">
-        <v>0.180526288900726</v>
+        <v>0.1805262889007254</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04602800057974817</v>
+        <v>0.04602800057974815</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0224729618336716</v>
+        <v>-0.02247296183367151</v>
       </c>
       <c r="G3" t="n">
         <v>0.1190839823135942</v>
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.2030920750133167</v>
+        <v>0.2030920750133161</v>
       </c>
       <c r="J3" t="n">
         <v>0.2729096977639549</v>
@@ -2265,19 +2265,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.09692855652697598</v>
+        <v>-0.09692855652697593</v>
       </c>
       <c r="D4" t="n">
         <v>0.006077716086674002</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03726897598367038</v>
+        <v>0.03726897598367036</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1660350292789127</v>
+        <v>-0.1660350292789126</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02782208377503927</v>
+        <v>-0.02782208377503925</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>0.3995716448626436</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.09692855652697598</v>
+        <v>-0.09692855652697593</v>
       </c>
     </row>
     <row r="5">
@@ -2307,16 +2307,16 @@
         <v>-0.1162306923589077</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001197157659143484</v>
+        <v>0.001197157659143487</v>
       </c>
       <c r="E5" t="n">
         <v>0.0318585560807472</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1862983720849732</v>
+        <v>-0.1862983720849731</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04616301263284225</v>
+        <v>-0.04616301263284223</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2349,13 +2349,13 @@
         <v>0.001694611400051513</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03927931819082361</v>
+        <v>0.0392793181908236</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1861611437355297</v>
+        <v>-0.1861611437355296</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.043336139209613</v>
+        <v>-0.04333613920961299</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -2382,19 +2382,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.05813589689092009</v>
+        <v>-0.05813589689092007</v>
       </c>
       <c r="D7" t="n">
         <v>0.1060833514050907</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03901448349122237</v>
+        <v>0.03901448349122238</v>
       </c>
       <c r="F7" t="n">
         <v>-0.1286906827477101</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0124188889658699</v>
+        <v>0.01241888896586991</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.1363928803779737</v>
+        <v>0.1363928803779738</v>
       </c>
       <c r="J7" t="n">
         <v>0.3415366606717399</v>
@@ -2421,19 +2421,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.04368691232699996</v>
+        <v>-0.04368691232699993</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2424099034997649</v>
+        <v>0.2424099034997651</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03594600278034099</v>
+        <v>0.03594600278034097</v>
       </c>
       <c r="F8" t="n">
         <v>-0.1170321894950796</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02965836484107971</v>
+        <v>0.02965836484107972</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.2424099034997649</v>
+        <v>0.2424099034997651</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2848838430936436</v>
+        <v>0.2848838430936437</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2460,19 +2460,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.1178051822378977</v>
+        <v>-0.1178051822378976</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0004863404931481635</v>
+        <v>0.0004863404931481643</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04110383782189906</v>
+        <v>0.04110383782189905</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1837005910253433</v>
+        <v>-0.1837005910253432</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05190977345045207</v>
+        <v>-0.05190977345045204</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2480,13 +2480,13 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.004377064438333471</v>
+        <v>0.004377064438333479</v>
       </c>
       <c r="J9" t="n">
         <v>0.4089235056456876</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.1178051822378977</v>
+        <v>-0.1178051822378976</v>
       </c>
     </row>
     <row r="10">
@@ -2499,19 +2499,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.08683250227614608</v>
+        <v>-0.08683250227614606</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008718578777566497</v>
+        <v>0.008718578777566514</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0324645600421543</v>
+        <v>0.03246456004215428</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.151611588393502</v>
+        <v>-0.1516115883935019</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02205341615879021</v>
+        <v>-0.02205341615879018</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -2519,13 +2519,13 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.0156934417996197</v>
+        <v>0.01569344179961973</v>
       </c>
       <c r="J10" t="n">
-        <v>0.432966704604139</v>
+        <v>0.4329667046041389</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.08683250227614608</v>
+        <v>-0.08683250227614606</v>
       </c>
     </row>
   </sheetData>
